--- a/data/downloads/train.xlsx
+++ b/data/downloads/train.xlsx
@@ -3704,7 +3704,7 @@
       <c r="V36" t="inlineStr"/>
       <c r="W36" t="inlineStr">
         <is>
-          <t xml:space="preserve">ball milled conducvitity; structure may be different </t>
+          <t xml:space="preserve">Ball milled conducvitity; structure may be different </t>
         </is>
       </c>
       <c r="X36" t="inlineStr"/>
